--- a/Downer/29267/res_F2LSIP ITP 9 - Road Signs.xlsx
+++ b/Downer/29267/res_F2LSIP ITP 9 - Road Signs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\28974\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\29267\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB8AC25-1389-4252-95A6-08FFBF178BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD5F049-E783-4CD1-BF61-2B9B474DC8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="1005" windowWidth="29010" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="1290" windowWidth="29010" windowHeight="19710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="87">
   <si>
     <t>type</t>
   </si>
@@ -58,9 +58,6 @@
     <t>itp</t>
   </si>
   <si>
-    <t>F2LSIP - ITP 9 - Road Signs</t>
-  </si>
-  <si>
     <t>section</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t xml:space="preserve">9.1 - Materials </t>
   </si>
   <si>
-    <t xml:space="preserve">Materials </t>
-  </si>
-  <si>
     <t>checklist</t>
   </si>
   <si>
@@ -115,27 +109,9 @@
     <t>Acceptance Criteria - All materials to comply with relevent clause under TNZ P24 2020</t>
   </si>
   <si>
-    <t>Verifying Document - Manufacturers Cetificate</t>
-  </si>
-  <si>
-    <t>Frequency - Once Per Supplier</t>
-  </si>
-  <si>
-    <t>Inspection Type - Review</t>
-  </si>
-  <si>
-    <t>Inspection: Key - R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2.1 - Delivery </t>
-  </si>
-  <si>
     <t>Inspection Point: Quality Control Activity - Inspection upon delivery</t>
   </si>
   <si>
-    <t xml:space="preserve">Acceptance Criteria - Signs to be checked for any damage upon delivery, return to manufacturer if damaged. </t>
-  </si>
-  <si>
     <t>Verifying Document - Delivery Checklist</t>
   </si>
   <si>
@@ -181,12 +157,6 @@
     <t>Acceptance Criteria - Supports to comply as per TNZ P24 2020 - Table 7.1</t>
   </si>
   <si>
-    <t>9.2.4 - Foundations</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria - Foundations to comply as per TNZ P24 2020 Clause 7.7 Foundations</t>
-  </si>
-  <si>
     <t>9.2.5 - Daytime Survey</t>
   </si>
   <si>
@@ -251,6 +221,69 @@
   </si>
   <si>
     <t xml:space="preserve">Acceptance Criteria - (a) Overall any sign or part of a traffic sign (eg guide sign), especially when set in a disadvantaged position, is performing suitable for purpose, exhibiting an even level of retroreflectivity across the face of the sign to ensure that an appropriate level of readability is achieved across the entire sign throughout the approach </t>
+  </si>
+  <si>
+    <t>Materials / Retroreflective Requirements / Contractor's Signposts Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">– – – – – – – – – – – – – – – – – – – – – </t>
+  </si>
+  <si>
+    <t>TABLE 810.2: MINIMUM STANDARD OF SIGN RETROREFLECTION</t>
+  </si>
+  <si>
+    <t>SIGN TYPE || STANDARD OF RETROREFLECTION</t>
+  </si>
+  <si>
+    <t>All signs with white or yellow backgrounds, such as regulatory parking and permanent warning signs || Class 400</t>
+  </si>
+  <si>
+    <t>All RG5 "Stop", RG6 "Give Way", RG-6R "Roundabout Give Way", RG-17 "Keep Left", and RG-17.1 "Keep Left Twin Disc" signs || Class 900</t>
+  </si>
+  <si>
+    <t>All other regulatory signs || Class 400</t>
+  </si>
+  <si>
+    <t>All ground-mounted information signs with a red, green, brown or blue background (guide, motorist service, and tourist signs) || Class 400</t>
+  </si>
+  <si>
+    <t>All Overhead Signs || Class 900</t>
+  </si>
+  <si>
+    <t>Chevron sign boards and single chevrons || Class 400</t>
+  </si>
+  <si>
+    <t>Panels with white background for black-on-white signs with less than 30% black on the sign face || Class 100</t>
+  </si>
+  <si>
+    <t>Belisha discs and red and white banded railway crossing cross-buck poles || Class 400</t>
+  </si>
+  <si>
+    <t>Permanent warning signs and chevrons as instructed by the Engineer || Fluorescent signs</t>
+  </si>
+  <si>
+    <t>○ The minimum standard of retroreflection for signs shall be as detailed in Table 810.2 in the technical specifications</t>
+  </si>
+  <si>
+    <t>○ The contractor shall design all signposts, poles and foundations in accordance to NZTA P4: 2020 and submit to the Engineer for Information and Review a month prior to installation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2.1 - Delivery / Confirm Services	</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Signs to be checked for any damage upon delivery, return to manufacturer if damaged. The Contractor shall confirm the location of all underground services within the vicinity of a ground-mounted sign prior to its erection.</t>
+  </si>
+  <si>
+    <t>9.2.4 - Foundations / Construction Records</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Foundations to comply as per TNZ P24 2020 Clause 7.7 Foundations. The contractor is to maintain construction records of each sign that clearly show that all posts, poles and foundation details comply with the requirements of the specification.</t>
+  </si>
+  <si>
+    <t>F2LSIP - ITP 09 - Road Signs</t>
+  </si>
+  <si>
+    <t>2224a125-ff69-492e-a112-d6879ab63ecb</t>
   </si>
 </sst>
 </file>
@@ -399,7 +432,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -601,6 +634,17 @@
       <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4CC82"/>
       </patternFill>
     </fill>
   </fills>
@@ -764,14 +808,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1127,16 +1172,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="186.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="216.28515625" style="1" customWidth="1"/>
     <col min="3" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1144,7 +1189,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1170,12 +1215,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -1185,287 +1230,290 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>48</v>
+      <c r="B37" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1473,15 +1521,15 @@
         <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>50</v>
+      <c r="A39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1489,7 +1537,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1497,7 +1545,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1505,7 +1553,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1513,7 +1561,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1521,15 +1569,15 @@
         <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>48</v>
+      <c r="A45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1537,15 +1585,15 @@
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>52</v>
+      <c r="A47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1553,7 +1601,7 @@
         <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1561,7 +1609,7 @@
         <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1569,7 +1617,7 @@
         <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1577,7 +1625,7 @@
         <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1585,15 +1633,15 @@
         <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>48</v>
+      <c r="A53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1601,15 +1649,15 @@
         <v>9</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>54</v>
+      <c r="A55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1617,7 +1665,7 @@
         <v>9</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1625,7 +1673,7 @@
         <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1633,7 +1681,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1641,7 +1689,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1649,15 +1697,15 @@
         <v>9</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>60</v>
+      <c r="A61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1665,15 +1713,15 @@
         <v>9</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>62</v>
+      <c r="A63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1681,7 +1729,7 @@
         <v>9</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1689,7 +1737,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1697,7 +1745,7 @@
         <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1705,7 +1753,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1713,15 +1761,15 @@
         <v>9</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>68</v>
+      <c r="A69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1729,15 +1777,15 @@
         <v>9</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>70</v>
+      <c r="A71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1745,47 +1793,47 @@
         <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>75</v>
+      <c r="B73" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>71</v>
+      <c r="B74" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>72</v>
+      <c r="B75" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>73</v>
+      <c r="B76" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="6" t="s">
-        <v>74</v>
+      <c r="B77" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1793,7 +1841,7 @@
         <v>9</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1801,7 +1849,7 @@
         <v>9</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1809,7 +1857,7 @@
         <v>9</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1817,7 +1865,7 @@
         <v>9</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1825,7 +1873,119 @@
         <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
